--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
-    <sheet name="Basics" sheetId="4" r:id="rId2"/>
-    <sheet name="HTML" sheetId="2" r:id="rId3"/>
-    <sheet name="JavaScript" sheetId="3" r:id="rId4"/>
+    <sheet name="Grades" sheetId="5" r:id="rId2"/>
+    <sheet name="Basics" sheetId="4" r:id="rId3"/>
+    <sheet name="HTML" sheetId="2" r:id="rId4"/>
+    <sheet name="JavaScript" sheetId="3" r:id="rId5"/>
+    <sheet name="Resources" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="358">
   <si>
     <t>Week</t>
   </si>
@@ -154,12 +156,6 @@
     <t>Mobile First</t>
   </si>
   <si>
-    <t xml:space="preserve"> Responsive Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JavaScript</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -2362,9 +2358,6 @@
     </r>
   </si>
   <si>
-    <t>Variables are containers for storing data values. The value of a variable can change throughout the program.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2960,9 +2953,126 @@
     <t>Focuses in JavaScript:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Read up on MVC, finish taking notes from </t>
-    </r>
+    <t>Foundation of Programming</t>
+  </si>
+  <si>
+    <r>
+      <t>   1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to define the content of web pages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to specify the layout of web pages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to program the behavior of web pages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Every written "instruction" is called a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>. JavaScript statements are separated by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>semicolons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2972,7 +3082,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SoloLearn</t>
+      <t>Variables</t>
     </r>
     <r>
       <rPr>
@@ -2982,7 +3092,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and </t>
+      <t> are containers for storing data values. The value of a variable can change throughout the program.</t>
+    </r>
+  </si>
+  <si>
+    <t>Containers for storing data values.</t>
+  </si>
+  <si>
+    <t>Can change throughout the program.</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Variables (Var)</t>
+  </si>
+  <si>
+    <t>Responsive Design</t>
+  </si>
+  <si>
+    <t>/*Notes: Padding adds space. Z-Index floats sections or parts in front of others.</t>
+  </si>
+  <si>
+    <t>The default index is one, so anything set aside to a number higher will bring it to the front*/</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Assignment 6</t>
+  </si>
+  <si>
+    <t>Assignment 7</t>
+  </si>
+  <si>
+    <t>Assignment 8</t>
+  </si>
+  <si>
+    <t>Assignment 9</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 2</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>Quiz 4</t>
+  </si>
+  <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quiz 6</t>
+  </si>
+  <si>
+    <t>Quiz 7</t>
+  </si>
+  <si>
+    <t>Quiz 8</t>
+  </si>
+  <si>
+    <t>Extra Credit</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read up on MVC, finish taking notes from </t>
     </r>
     <r>
       <rPr>
@@ -2993,7 +3189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>W3</t>
+      <t>SoloLearn</t>
     </r>
     <r>
       <rPr>
@@ -3003,135 +3199,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Look up the meaning and use of reserved words in JS.</t>
-    </r>
-  </si>
-  <si>
-    <t>Foundation of Programming</t>
-  </si>
-  <si>
-    <r>
-      <t>   1. </t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>HTML</t>
+      <t>W3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> to define the content of web pages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>   2. </t>
+      <t xml:space="preserve">. Look up the meaning and use of reserved words in JS. </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CSS</t>
+      <t>Coderbyte</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> to specify the layout of web pages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>   3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JavaScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> to program the behavior of web pages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Every written "instruction" is called a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>statement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>. JavaScript statements are separated by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>semicolons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t xml:space="preserve"> is also good.</t>
+    </r>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>SoloLearn</t>
+  </si>
+  <si>
+    <t>CodeAcademy</t>
+  </si>
+  <si>
+    <t>CoderByte</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>FontAwesome</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Communication and Doc Sharing</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Milestone 4</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3330,8 +3493,21 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3362,8 +3538,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3959,12 +4141,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4061,252 +4328,6 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4336,6 +4357,267 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4345,29 +4627,135 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4898,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4934,22 +5322,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="138"/>
       <c r="L1" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="120">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4958,971 +5346,971 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95" t="s">
+      <c r="F2" s="104"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="83" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="82"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="82"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="82"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="82"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="82"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="83"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="63">
+      <c r="A9" s="135">
         <v>2</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="114" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="93"/>
+      <c r="I9" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="97"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="131"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="85" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="98"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="128">
+        <v>3</v>
+      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="129"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="130">
+        <v>4</v>
+      </c>
+      <c r="B13" s="115"/>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="131"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="68"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="128">
+        <v>5</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="77"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A17" s="117">
+        <v>6</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="118"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="118"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A20" s="107">
+        <v>7</v>
+      </c>
+      <c r="B20" s="115"/>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A21" s="107"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="88"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="107"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="118">
+        <v>8</v>
+      </c>
+      <c r="B23" s="115"/>
+      <c r="C23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="118"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="124"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="84"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="122">
+        <v>9</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="87"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="123"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="88"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="124">
+        <v>10</v>
+      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="125"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="126">
+        <v>11</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="76"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="123"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="76"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="124">
+        <v>12</v>
+      </c>
+      <c r="B32" s="115"/>
+      <c r="C32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="127"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="84"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="120">
         <v>13</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="K9" s="98" t="s">
+      <c r="B34" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="107"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="76"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="118">
+        <v>14</v>
+      </c>
+      <c r="B36" s="115"/>
+      <c r="C36" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="68"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="118"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="68"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A38" s="107">
+        <v>15</v>
+      </c>
+      <c r="B38" s="115"/>
+      <c r="C38" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="76"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="107"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="118">
+        <v>16</v>
+      </c>
+      <c r="B40" s="115"/>
+      <c r="C40" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="68"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A41" s="118"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="68"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A42" s="119"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="69"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="120">
+        <v>17</v>
+      </c>
+      <c r="B43" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="83"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="107"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="76"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="118">
+        <v>18</v>
+      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="101"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="71">
-        <v>3</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="82"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="73">
-        <v>4</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="97"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="97"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="71">
-        <v>5</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="82"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="103"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="54">
-        <v>6</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="104"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="105"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="105"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="56">
-        <v>7</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="108"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="55">
-        <v>8</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="105"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="105"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="66">
-        <v>9</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="116"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="65">
-        <v>10</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="105"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="105"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="69">
-        <v>11</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="82"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="82"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="65">
-        <v>12</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="105"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="57">
-        <v>13</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="81"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="82"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="55">
-        <v>14</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="97"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="17" t="s">
+      <c r="G45" s="65"/>
+      <c r="H45" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="97"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="56">
-        <v>15</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="82"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="82"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="55">
-        <v>16</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43" t="s">
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="73"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" s="118"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="73"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A47" s="107">
+        <v>19</v>
+      </c>
+      <c r="B47" s="110"/>
+      <c r="C47" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="97"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="97"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="117"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="57">
-        <v>17</v>
-      </c>
-      <c r="B43" s="75" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="81"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="82"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="55">
-        <v>18</v>
-      </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="105"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="55"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="11" t="s">
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="76"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A48" s="108"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="77"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="117">
+        <v>20</v>
+      </c>
+      <c r="B49" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="105"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="56">
-        <v>19</v>
-      </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="78" t="s">
+      <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="82"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="103"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="54">
-        <v>20</v>
-      </c>
-      <c r="B49" s="59" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="67"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A50" s="118"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="68"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A51" s="118"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="11" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="68"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A52" s="119"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="97"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="97"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="80"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="117"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="69"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:12" ht="15.75" thickBot="1">
       <c r="A56" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="16.5" thickBot="1">
       <c r="A57" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" thickBot="1">
       <c r="A58" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B58" s="41">
         <v>0.05</v>
@@ -5930,29 +6318,29 @@
     </row>
     <row r="59" spans="1:12" ht="16.5" thickBot="1">
       <c r="A59" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B59" s="41">
         <v>0.36</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.5" thickBot="1">
       <c r="A60" s="40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B60" s="41">
         <v>0.32</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.5" thickBot="1">
       <c r="A61" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B61" s="41">
         <v>0.3</v>
@@ -5960,57 +6348,146 @@
     </row>
     <row r="62" spans="1:12" ht="16.5" thickBot="1">
       <c r="A62" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="41">
         <v>1.03</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="190">
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
@@ -6035,132 +6512,46 @@
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L2:L8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -6192,32 +6583,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A1" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="152" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="161" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="177">
+        <v>43329</v>
+      </c>
+      <c r="C2" s="153">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A3" s="161" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="183"/>
+      <c r="C3" s="153">
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="184"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="180" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="181">
+        <v>43210</v>
+      </c>
+      <c r="C4" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="163"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="171">
+        <v>43231</v>
+      </c>
+      <c r="C5" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="156"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="171">
+        <v>43245</v>
+      </c>
+      <c r="C6" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="156"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="171">
+        <v>43259</v>
+      </c>
+      <c r="C7" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="156"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="155" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="171">
+        <v>43273</v>
+      </c>
+      <c r="C8" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="156"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="155" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="171">
+        <v>43287</v>
+      </c>
+      <c r="C9" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="156"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="155" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="171">
+        <v>43301</v>
+      </c>
+      <c r="C10" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="156"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="171">
+        <v>43315</v>
+      </c>
+      <c r="C11" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="156"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A12" s="157" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="173">
+        <v>43329</v>
+      </c>
+      <c r="C12" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="159"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A13" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="183"/>
+      <c r="C13" s="153">
+        <v>0.32</v>
+      </c>
+      <c r="D13" s="184"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="180" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="181">
+        <v>43203</v>
+      </c>
+      <c r="C14" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="163">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="155" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="171">
+        <v>43217</v>
+      </c>
+      <c r="C15" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D15" s="156"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="155" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" s="171">
+        <v>43238</v>
+      </c>
+      <c r="C16" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="156"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="155" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" s="171">
+        <v>43252</v>
+      </c>
+      <c r="C17" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="156"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="171">
+        <v>43266</v>
+      </c>
+      <c r="C18" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="156"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="155" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="171">
+        <v>43280</v>
+      </c>
+      <c r="C19" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D19" s="156"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="155" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="171">
+        <v>43294</v>
+      </c>
+      <c r="C20" s="160">
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="156"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="174" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="173">
+        <v>43308</v>
+      </c>
+      <c r="C21" s="175">
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="176"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A22" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="183"/>
+      <c r="C22" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="154"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="185">
+        <v>43217</v>
+      </c>
+      <c r="C23" s="149"/>
+      <c r="D23" s="163"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" s="172">
+        <v>43245</v>
+      </c>
+      <c r="C24" s="148"/>
+      <c r="D24" s="156"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="155" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="172">
+        <v>43273</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="156"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A26" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26" s="179">
+        <v>43301</v>
+      </c>
+      <c r="C26" s="158"/>
+      <c r="D26" s="159"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A27" s="161" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="186"/>
+      <c r="C27" s="153">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="184"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="162" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="185">
+        <v>43201</v>
+      </c>
+      <c r="C28" s="149"/>
+      <c r="D28" s="163">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="168" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="148"/>
+      <c r="D29" s="156"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A30" s="169" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="158"/>
+      <c r="D30" s="159"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A31" s="164" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="170"/>
+      <c r="C31" s="165">
+        <v>1.03</v>
+      </c>
+      <c r="D31" s="166"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="J2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>311</v>
+      </c>
+      <c r="J3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6225,12 +6995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17:V21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6240,221 +7010,221 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
         <v>94</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="X5" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>109</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="I6" t="s">
+      <c r="X6" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
         <v>114</v>
       </c>
-      <c r="H7" t="s">
+      <c r="X7" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="I7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
         <v>118</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="M9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X11" s="28"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="M14" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="M15" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" t="s">
         <v>141</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>149</v>
       </c>
       <c r="X20" s="28"/>
     </row>
@@ -6463,152 +7233,152 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" t="s">
         <v>150</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="M35" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6616,105 +7386,105 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6723,144 +7493,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6868,421 +7638,441 @@
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="C61" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="123"/>
+      <c r="C61" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="144"/>
+      <c r="E61" s="145"/>
     </row>
     <row r="62" spans="1:10">
       <c r="C62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="J63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="122"/>
-      <c r="C64" s="123"/>
-      <c r="E64" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" s="122"/>
-      <c r="G64" s="123"/>
+      <c r="A64" s="143" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="144"/>
+      <c r="C64" s="145"/>
+      <c r="E64" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="144"/>
+      <c r="G64" s="145"/>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="C67" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="123"/>
+      <c r="C67" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="43"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="43"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="44" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="126" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="127" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="44" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="124" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="44" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="125"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="126" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="125"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="126" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="126" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="126" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="126" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="126" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="126" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15.75">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75">
       <c r="A98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="129" t="s">
+      <c r="A106" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="46"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="46"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A112" s="48"/>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A113" s="48" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="128"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="130" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="128"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="130" t="s">
+      <c r="P113" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q113" s="141"/>
+      <c r="R113" s="142"/>
+      <c r="T113" s="140" t="s">
+        <v>302</v>
+      </c>
+      <c r="U113" s="141"/>
+      <c r="V113" s="142"/>
+    </row>
+    <row r="114" spans="1:22" ht="15.75" thickBot="1">
+      <c r="P114" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q114" s="51" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="130" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A112" s="130"/>
-    </row>
-    <row r="113" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A113" s="130" t="s">
+      <c r="R114" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="T114" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="P113" s="132" t="s">
+      <c r="U114" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="V114" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="Q113" s="133"/>
-      <c r="R113" s="134"/>
-      <c r="T113" s="132" t="s">
-        <v>305</v>
-      </c>
-      <c r="U113" s="133"/>
-      <c r="V113" s="134"/>
-    </row>
-    <row r="114" spans="1:22" ht="15.75" thickBot="1">
-      <c r="P114" s="135" t="s">
+    </row>
+    <row r="115" spans="1:22">
+      <c r="P115" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="Q114" s="136" t="s">
+      <c r="Q115" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="R115" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="T115" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="U115" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="V115" s="55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="P116" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q116" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="R114" s="137" t="s">
-        <v>302</v>
-      </c>
-      <c r="T114" s="135" t="s">
+      <c r="R116" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="T116" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="U114" s="136" t="s">
+      <c r="U116" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="V114" s="137" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
-      <c r="P115" s="138" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q115" s="139" t="s">
-        <v>303</v>
-      </c>
-      <c r="R115" s="140" t="s">
-        <v>303</v>
-      </c>
-      <c r="T115" s="138" t="s">
-        <v>303</v>
-      </c>
-      <c r="U115" s="139" t="s">
-        <v>303</v>
-      </c>
-      <c r="V115" s="140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
-      <c r="P116" s="141" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q116" s="131" t="s">
-        <v>304</v>
-      </c>
-      <c r="R116" s="142" t="s">
-        <v>304</v>
-      </c>
-      <c r="T116" s="141" t="s">
-        <v>303</v>
-      </c>
-      <c r="U116" s="131" t="s">
-        <v>304</v>
-      </c>
-      <c r="V116" s="142" t="s">
-        <v>303</v>
+      <c r="V116" s="57" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="P117" s="141" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q117" s="131" t="s">
-        <v>303</v>
-      </c>
-      <c r="R117" s="142" t="s">
-        <v>304</v>
-      </c>
-      <c r="T117" s="141" t="s">
-        <v>304</v>
-      </c>
-      <c r="U117" s="131" t="s">
-        <v>303</v>
-      </c>
-      <c r="V117" s="142" t="s">
-        <v>303</v>
+      <c r="P117" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q117" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="R117" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="T117" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="U117" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="V117" s="57" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="15.75" thickBot="1">
-      <c r="P118" s="143" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q118" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="R118" s="145" t="s">
-        <v>304</v>
-      </c>
-      <c r="T118" s="143" t="s">
-        <v>304</v>
-      </c>
-      <c r="U118" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="V118" s="145" t="s">
-        <v>304</v>
+      <c r="P118" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q118" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="R118" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="T118" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="U118" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="V118" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:22">
       <c r="M125" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:22">
       <c r="M126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:22">
       <c r="M127" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:22">
       <c r="M128" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7301,4 +8091,68 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>